--- a/FinalProposal/NeedMatrix.xlsx
+++ b/FinalProposal/NeedMatrix.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="580" yWindow="0" windowWidth="29900" windowHeight="19020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Approach 1" sheetId="1" r:id="rId1"/>
     <sheet name="Approach 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Approach 3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Need for biodiversity experts in NGOs, companies, government agencies</t>
   </si>
@@ -49,9 +51,6 @@
     <t>Core Courses</t>
   </si>
   <si>
-    <t>Science Communication</t>
-  </si>
-  <si>
     <t>Cross-department committees</t>
   </si>
   <si>
@@ -92,6 +91,117 @@
   </si>
   <si>
     <t>Emphasis on sustainable, stable career paths; outreach to broader community to highlight broad career choices</t>
+  </si>
+  <si>
+    <t>Management &amp; Communication</t>
+  </si>
+  <si>
+    <t>Lack of prioritization of nonacademic paths in current training models</t>
+  </si>
+  <si>
+    <t>Core biological training</t>
+  </si>
+  <si>
+    <t>• Semester long courses</t>
+  </si>
+  <si>
+    <t>• Field courses</t>
+  </si>
+  <si>
+    <t>Technology training</t>
+  </si>
+  <si>
+    <t>• Workshops</t>
+  </si>
+  <si>
+    <t>Leadership / management / communication</t>
+  </si>
+  <si>
+    <t>Outreach</t>
+  </si>
+  <si>
+    <t>Cross disciplinary committees</t>
+  </si>
+  <si>
+    <t>Trainee research</t>
+  </si>
+  <si>
+    <t>Prototyping change</t>
+  </si>
+  <si>
+    <t>Need number</t>
+  </si>
+  <si>
+    <t>Solution letter</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>ABCDGJ</t>
+  </si>
+  <si>
+    <t>GJ</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Outcomes</t>
+  </si>
+  <si>
+    <t>Trainee placement</t>
+  </si>
+  <si>
+    <t>Prototype training model and change</t>
+  </si>
+  <si>
+    <t>Outcome to need match</t>
+  </si>
+  <si>
+    <t>Need to solution match</t>
+  </si>
+  <si>
+    <t>As part of training students, they do real research</t>
+  </si>
+  <si>
+    <t>Synergy in research</t>
+  </si>
+  <si>
+    <t>Trained students in tech and biodiversity</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>Broader pool of graduate students entering science</t>
   </si>
 </sst>
 </file>
@@ -164,8 +274,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -183,11 +295,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,7 +634,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -544,11 +658,11 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -565,13 +679,13 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -580,19 +694,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -603,15 +717,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -619,7 +733,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -627,10 +741,10 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1"/>
     </row>
@@ -641,10 +755,10 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -656,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -665,7 +779,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -688,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -700,10 +814,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -711,23 +825,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -735,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -743,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -755,4 +869,250 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/FinalProposal/NeedMatrix.xlsx
+++ b/FinalProposal/NeedMatrix.xlsx
@@ -274,8 +274,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -295,13 +311,29 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -876,7 +908,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
